--- a/Division_of_tasks.xlsx
+++ b/Division_of_tasks.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\ISDInitiative\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="13860" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="13860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1898,7 +1903,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1936,7 +1941,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1958,6 +1963,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,7 +2037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2082,7 +2093,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2092,9 +2106,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2109,8 +2120,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2121,6 +2138,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2169,7 +2189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2204,7 +2224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2463,7 +2483,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2472,98 +2492,98 @@
       <c r="C2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="24"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="23"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="24"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="24"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2572,11 +2592,11 @@
       <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="25"/>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="21" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -2586,84 +2606,84 @@
       <c r="I8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="21" t="s">
         <v>53</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2672,85 +2692,85 @@
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="20" t="s">
         <v>55</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2759,80 +2779,112 @@
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="21" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="20" t="s">
         <v>71</v>
       </c>
       <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="23" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E19:E22"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A2:A6"/>
@@ -2841,38 +2893,6 @@
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="K19:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2882,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,13 +2983,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -3004,8 +3023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,7 +3066,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>44</v>
       </c>
@@ -3070,7 +3089,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -3081,14 +3100,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="B7" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>58</v>
       </c>
@@ -3314,7 +3335,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>54</v>
       </c>

--- a/Division_of_tasks.xlsx
+++ b/Division_of_tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="13860" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1936,7 +1936,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1958,6 +1958,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,7 +2038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2085,6 +2097,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2092,9 +2110,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2109,8 +2124,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2415,9 +2445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B19" sqref="A19:XFD22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2463,7 +2493,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2472,98 +2502,98 @@
       <c r="C2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="22" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="23"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="23"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2572,98 +2602,98 @@
       <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="22" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="25"/>
+      <c r="I9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2672,85 +2702,85 @@
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="32" t="s">
         <v>55</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2759,80 +2789,112 @@
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="22" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="24"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="23" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E19:E22"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A2:A6"/>
@@ -2841,38 +2903,6 @@
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="K19:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2882,7 +2912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -3047,7 +3077,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>44</v>
       </c>
@@ -3070,7 +3100,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -3088,7 +3118,7 @@
       <c r="B7" s="19"/>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>58</v>
       </c>
@@ -3314,7 +3344,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>54</v>
       </c>
